--- a/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_10_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_10_1_replicas.xlsx
@@ -17,7 +17,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="320">
+  <si>
+    <t>Baseline - Majority Class</t>
+  </si>
   <si>
     <t>KNN</t>
   </si>
@@ -43,9 +46,6 @@
     <t>SVM</t>
   </si>
   <si>
-    <t>Baseline - Majority Class</t>
-  </si>
-  <si>
     <t>Train Accuracy (F1 Score micro)</t>
   </si>
   <si>
@@ -76,13 +76,25 @@
     <t>Time</t>
   </si>
   <si>
+    <t>0.799+/-0.0</t>
+  </si>
+  <si>
+    <t>0.798</t>
+  </si>
+  <si>
+    <t>0.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
     <t>0.961+/-0.001</t>
   </si>
   <si>
     <t>0.79+/-0.0</t>
   </si>
   <si>
-    <t>0.787</t>
+    <t>0.788</t>
   </si>
   <si>
     <t>0.999+/-0.0</t>
@@ -91,10 +103,10 @@
     <t>0.365+/-0.09</t>
   </si>
   <si>
-    <t>0.367</t>
-  </si>
-  <si>
-    <t>0.809+/-0.004</t>
+    <t>0.372</t>
+  </si>
+  <si>
+    <t>0.808+/-0.004</t>
   </si>
   <si>
     <t>0.071+/-0.026</t>
@@ -106,28 +118,19 @@
     <t>0.003+/-0.0</t>
   </si>
   <si>
-    <t>0.799+/-0.0</t>
-  </si>
-  <si>
-    <t>0.798</t>
-  </si>
-  <si>
     <t>0.557+/-0.06</t>
   </si>
   <si>
     <t>0.2+/-0.332</t>
   </si>
   <si>
-    <t>0.0</t>
-  </si>
-  <si>
     <t>0.002+/-0.0</t>
   </si>
   <si>
     <t>0.002+/-0.003</t>
   </si>
   <si>
-    <t>0.416+/-0.051</t>
+    <t>0.445+/-0.054</t>
   </si>
   <si>
     <t>0.465+/-0.019</t>
@@ -157,334 +160,340 @@
     <t>0.704</t>
   </si>
   <si>
+    <t>0.006+/-0.0</t>
+  </si>
+  <si>
+    <t>0.689+/-0.005</t>
+  </si>
+  <si>
+    <t>0.686+/-0.0</t>
+  </si>
+  <si>
+    <t>0.655</t>
+  </si>
+  <si>
+    <t>0.305+/-0.003</t>
+  </si>
+  <si>
+    <t>0.301+/-0.023</t>
+  </si>
+  <si>
+    <t>0.252</t>
+  </si>
+  <si>
+    <t>0.428+/-0.013</t>
+  </si>
+  <si>
+    <t>0.422+/-0.033</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>0.007+/-0.001</t>
+  </si>
+  <si>
+    <t>0.825+/-0.003</t>
+  </si>
+  <si>
+    <t>0.783+/-0.0</t>
+  </si>
+  <si>
+    <t>0.774</t>
+  </si>
+  <si>
+    <t>0.759+/-0.03</t>
+  </si>
+  <si>
+    <t>0.361+/-0.09</t>
+  </si>
+  <si>
+    <t>0.247</t>
+  </si>
+  <si>
+    <t>0.195+/-0.031</t>
+  </si>
+  <si>
+    <t>0.086+/-0.027</t>
+  </si>
+  <si>
+    <t>0.059</t>
+  </si>
+  <si>
+    <t>4.292+/-0.748</t>
+  </si>
+  <si>
+    <t>0.835+/-0.003</t>
+  </si>
+  <si>
+    <t>0.777+/-0.0</t>
+  </si>
+  <si>
+    <t>0.776</t>
+  </si>
+  <si>
+    <t>0.857+/-0.052</t>
+  </si>
+  <si>
+    <t>0.3+/-0.082</t>
+  </si>
+  <si>
+    <t>0.319</t>
+  </si>
+  <si>
+    <t>0.219+/-0.033</t>
+  </si>
+  <si>
+    <t>0.082+/-0.035</t>
+  </si>
+  <si>
+    <t>0.096</t>
+  </si>
+  <si>
+    <t>0.065+/-0.002</t>
+  </si>
+  <si>
+    <t>0.831+/-0.005</t>
+  </si>
+  <si>
+    <t>0.775</t>
+  </si>
+  <si>
+    <t>0.85+/-0.037</t>
+  </si>
+  <si>
+    <t>0.331+/-0.095</t>
+  </si>
+  <si>
+    <t>0.296</t>
+  </si>
+  <si>
+    <t>0.197+/-0.034</t>
+  </si>
+  <si>
+    <t>0.075+/-0.023</t>
+  </si>
+  <si>
+    <t>0.085</t>
+  </si>
+  <si>
+    <t>0.082+/-0.002</t>
+  </si>
+  <si>
+    <t>0.801+/-0.0</t>
+  </si>
+  <si>
+    <t>0.799</t>
+  </si>
+  <si>
+    <t>0.914+/-0.037</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>0.011+/-0.001</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>13.524+/-1.501</t>
+  </si>
+  <si>
+    <t>0.85+/-0.0</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.963+/-0.013</t>
+  </si>
+  <si>
+    <t>0.843+/-0.0</t>
+  </si>
+  <si>
+    <t>0.845</t>
+  </si>
+  <si>
+    <t>0.967+/-0.1</t>
+  </si>
+  <si>
+    <t>0.404+/-0.096</t>
+  </si>
+  <si>
+    <t>0.368</t>
+  </si>
+  <si>
+    <t>0.806+/-0.064</t>
+  </si>
+  <si>
+    <t>0.073+/-0.075</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.003+/-0.001</t>
+  </si>
+  <si>
+    <t>0.567+/-0.111</t>
+  </si>
+  <si>
+    <t>0.1+/-0.3</t>
+  </si>
+  <si>
+    <t>0.001+/-0.003</t>
+  </si>
+  <si>
+    <t>0.399+/-0.065</t>
+  </si>
+  <si>
+    <t>0.67+/-0.023</t>
+  </si>
+  <si>
+    <t>0.67+/-0.0</t>
+  </si>
+  <si>
+    <t>0.654</t>
+  </si>
+  <si>
+    <t>0.235+/-0.006</t>
+  </si>
+  <si>
+    <t>0.233+/-0.016</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>0.526+/-0.038</t>
+  </si>
+  <si>
+    <t>0.518+/-0.04</t>
+  </si>
+  <si>
+    <t>0.473</t>
+  </si>
+  <si>
+    <t>0.005+/-0.0</t>
+  </si>
+  <si>
+    <t>0.734+/-0.003</t>
+  </si>
+  <si>
+    <t>0.733+/-0.0</t>
+  </si>
+  <si>
+    <t>0.713</t>
+  </si>
+  <si>
+    <t>0.258+/-0.002</t>
+  </si>
+  <si>
+    <t>0.257+/-0.018</t>
+  </si>
+  <si>
+    <t>0.224</t>
+  </si>
+  <si>
+    <t>0.415+/-0.008</t>
+  </si>
+  <si>
+    <t>0.413+/-0.023</t>
+  </si>
+  <si>
+    <t>0.369</t>
+  </si>
+  <si>
     <t>0.006+/-0.001</t>
   </si>
   <si>
-    <t>0.689+/-0.005</t>
-  </si>
-  <si>
-    <t>0.686+/-0.0</t>
-  </si>
-  <si>
-    <t>0.655</t>
-  </si>
-  <si>
-    <t>0.305+/-0.003</t>
-  </si>
-  <si>
-    <t>0.301+/-0.023</t>
-  </si>
-  <si>
-    <t>0.252</t>
-  </si>
-  <si>
-    <t>0.428+/-0.013</t>
-  </si>
-  <si>
-    <t>0.422+/-0.033</t>
-  </si>
-  <si>
-    <t>0.36</t>
-  </si>
-  <si>
-    <t>0.82+/-0.005</t>
-  </si>
-  <si>
-    <t>0.782+/-0.0</t>
-  </si>
-  <si>
-    <t>0.767</t>
-  </si>
-  <si>
-    <t>0.736+/-0.041</t>
-  </si>
-  <si>
-    <t>0.326+/-0.071</t>
-  </si>
-  <si>
-    <t>0.216</t>
-  </si>
-  <si>
-    <t>0.17+/-0.039</t>
-  </si>
-  <si>
-    <t>0.069+/-0.023</t>
-  </si>
-  <si>
-    <t>0.059</t>
-  </si>
-  <si>
-    <t>3.333+/-0.619</t>
-  </si>
-  <si>
-    <t>0.835+/-0.003</t>
-  </si>
-  <si>
-    <t>0.777+/-0.0</t>
-  </si>
-  <si>
-    <t>0.775</t>
-  </si>
-  <si>
-    <t>0.862+/-0.056</t>
-  </si>
-  <si>
-    <t>0.294+/-0.086</t>
-  </si>
-  <si>
-    <t>0.31</t>
-  </si>
-  <si>
-    <t>0.219+/-0.032</t>
-  </si>
-  <si>
-    <t>0.079+/-0.036</t>
-  </si>
-  <si>
-    <t>0.093</t>
+    <t>0.864+/-0.004</t>
+  </si>
+  <si>
+    <t>0.836+/-0.0</t>
+  </si>
+  <si>
+    <t>0.844</t>
+  </si>
+  <si>
+    <t>0.779+/-0.053</t>
+  </si>
+  <si>
+    <t>0.201+/-0.123</t>
+  </si>
+  <si>
+    <t>0.286</t>
+  </si>
+  <si>
+    <t>0.135+/-0.042</t>
+  </si>
+  <si>
+    <t>0.038+/-0.033</t>
+  </si>
+  <si>
+    <t>0.029</t>
+  </si>
+  <si>
+    <t>3.601+/-0.631</t>
+  </si>
+  <si>
+    <t>0.88+/-0.003</t>
+  </si>
+  <si>
+    <t>0.828+/-0.0</t>
+  </si>
+  <si>
+    <t>0.835</t>
+  </si>
+  <si>
+    <t>0.893+/-0.021</t>
+  </si>
+  <si>
+    <t>0.253+/-0.07</t>
+  </si>
+  <si>
+    <t>0.263</t>
+  </si>
+  <si>
+    <t>0.224+/-0.025</t>
+  </si>
+  <si>
+    <t>0.072+/-0.019</t>
+  </si>
+  <si>
+    <t>0.054</t>
   </si>
   <si>
     <t>0.055+/-0.005</t>
   </si>
   <si>
-    <t>0.831+/-0.005</t>
-  </si>
-  <si>
-    <t>0.781+/-0.0</t>
-  </si>
-  <si>
-    <t>0.774</t>
-  </si>
-  <si>
-    <t>0.849+/-0.038</t>
-  </si>
-  <si>
-    <t>0.314+/-0.093</t>
-  </si>
-  <si>
-    <t>0.283</t>
-  </si>
-  <si>
-    <t>0.198+/-0.034</t>
-  </si>
-  <si>
-    <t>0.073+/-0.024</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>0.06+/-0.005</t>
-  </si>
-  <si>
-    <t>0.801+/-0.0</t>
-  </si>
-  <si>
-    <t>0.799</t>
-  </si>
-  <si>
-    <t>0.914+/-0.037</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>0.011+/-0.001</t>
-  </si>
-  <si>
-    <t>0.005</t>
-  </si>
-  <si>
-    <t>11.46+/-0.133</t>
-  </si>
-  <si>
-    <t>0.963+/-0.013</t>
-  </si>
-  <si>
-    <t>0.843+/-0.0</t>
-  </si>
-  <si>
-    <t>0.845</t>
-  </si>
-  <si>
-    <t>0.967+/-0.1</t>
-  </si>
-  <si>
-    <t>0.404+/-0.096</t>
-  </si>
-  <si>
-    <t>0.368</t>
-  </si>
-  <si>
-    <t>0.806+/-0.064</t>
-  </si>
-  <si>
-    <t>0.073+/-0.075</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>0.85+/-0.0</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.567+/-0.111</t>
-  </si>
-  <si>
-    <t>0.1+/-0.3</t>
-  </si>
-  <si>
-    <t>0.001+/-0.003</t>
-  </si>
-  <si>
-    <t>0.416+/-0.081</t>
-  </si>
-  <si>
-    <t>0.67+/-0.023</t>
-  </si>
-  <si>
-    <t>0.67+/-0.0</t>
-  </si>
-  <si>
-    <t>0.654</t>
-  </si>
-  <si>
-    <t>0.235+/-0.006</t>
-  </si>
-  <si>
-    <t>0.233+/-0.016</t>
-  </si>
-  <si>
-    <t>0.21</t>
-  </si>
-  <si>
-    <t>0.526+/-0.038</t>
-  </si>
-  <si>
-    <t>0.518+/-0.04</t>
-  </si>
-  <si>
-    <t>0.473</t>
-  </si>
-  <si>
-    <t>0.005+/-0.0</t>
-  </si>
-  <si>
-    <t>0.734+/-0.003</t>
-  </si>
-  <si>
-    <t>0.733+/-0.0</t>
-  </si>
-  <si>
-    <t>0.713</t>
-  </si>
-  <si>
-    <t>0.258+/-0.002</t>
-  </si>
-  <si>
-    <t>0.257+/-0.018</t>
-  </si>
-  <si>
-    <t>0.224</t>
-  </si>
-  <si>
-    <t>0.415+/-0.008</t>
-  </si>
-  <si>
-    <t>0.413+/-0.023</t>
-  </si>
-  <si>
-    <t>0.369</t>
-  </si>
-  <si>
-    <t>0.862+/-0.003</t>
-  </si>
-  <si>
-    <t>0.839+/-0.0</t>
-  </si>
-  <si>
-    <t>0.835</t>
-  </si>
-  <si>
-    <t>0.76+/-0.048</t>
-  </si>
-  <si>
-    <t>0.24+/-0.109</t>
-  </si>
-  <si>
-    <t>0.241</t>
-  </si>
-  <si>
-    <t>0.116+/-0.039</t>
-  </si>
-  <si>
-    <t>0.032+/-0.017</t>
-  </si>
-  <si>
-    <t>0.047</t>
-  </si>
-  <si>
-    <t>2.949+/-0.698</t>
-  </si>
-  <si>
-    <t>0.88+/-0.003</t>
-  </si>
-  <si>
-    <t>0.83+/-0.0</t>
-  </si>
-  <si>
-    <t>0.837</t>
-  </si>
-  <si>
-    <t>0.893+/-0.018</t>
-  </si>
-  <si>
-    <t>0.268+/-0.057</t>
-  </si>
-  <si>
-    <t>0.269</t>
-  </si>
-  <si>
-    <t>0.224+/-0.025</t>
-  </si>
-  <si>
-    <t>0.077+/-0.018</t>
-  </si>
-  <si>
-    <t>0.054+/-0.005</t>
-  </si>
-  <si>
     <t>0.874+/-0.003</t>
   </si>
   <si>
-    <t>0.828+/-0.0</t>
-  </si>
-  <si>
-    <t>0.83</t>
-  </si>
-  <si>
-    <t>0.872+/-0.04</t>
-  </si>
-  <si>
-    <t>0.213+/-0.05</t>
-  </si>
-  <si>
-    <t>0.197</t>
-  </si>
-  <si>
-    <t>0.19+/-0.022</t>
-  </si>
-  <si>
-    <t>0.056+/-0.021</t>
-  </si>
-  <si>
-    <t>0.043</t>
-  </si>
-  <si>
-    <t>0.061+/-0.004</t>
+    <t>0.829</t>
+  </si>
+  <si>
+    <t>0.866+/-0.044</t>
+  </si>
+  <si>
+    <t>0.205+/-0.037</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>0.191+/-0.023</t>
+  </si>
+  <si>
+    <t>0.053+/-0.019</t>
+  </si>
+  <si>
+    <t>0.039</t>
+  </si>
+  <si>
+    <t>0.063+/-0.004</t>
   </si>
   <si>
     <t>0.852+/-0.0</t>
@@ -505,424 +514,439 @@
     <t>0.004</t>
   </si>
   <si>
-    <t>9.04+/-0.209</t>
-  </si>
-  <si>
-    <t>0.977+/-0.001</t>
-  </si>
-  <si>
-    <t>0.703+/-0.0</t>
+    <t>9.225+/-0.332</t>
+  </si>
+  <si>
+    <t>0.723+/-0.0</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.97+/-0.018</t>
+  </si>
+  <si>
+    <t>0.698+/-0.0</t>
+  </si>
+  <si>
+    <t>0.709</t>
+  </si>
+  <si>
+    <t>0.977+/-0.069</t>
+  </si>
+  <si>
+    <t>0.381+/-0.06</t>
+  </si>
+  <si>
+    <t>0.415</t>
+  </si>
+  <si>
+    <t>0.923+/-0.025</t>
+  </si>
+  <si>
+    <t>0.136+/-0.042</t>
+  </si>
+  <si>
+    <t>0.128</t>
+  </si>
+  <si>
+    <t>0.725+/-0.001</t>
+  </si>
+  <si>
+    <t>0.724+/-0.0</t>
+  </si>
+  <si>
+    <t>0.722</t>
+  </si>
+  <si>
+    <t>0.546+/-0.014</t>
+  </si>
+  <si>
+    <t>0.533+/-0.123</t>
+  </si>
+  <si>
+    <t>0.471</t>
+  </si>
+  <si>
+    <t>0.04+/-0.005</t>
+  </si>
+  <si>
+    <t>0.04+/-0.007</t>
+  </si>
+  <si>
+    <t>0.031</t>
+  </si>
+  <si>
+    <t>0.201+/-0.046</t>
+  </si>
+  <si>
+    <t>0.679+/-0.001</t>
+  </si>
+  <si>
+    <t>0.677+/-0.0</t>
+  </si>
+  <si>
+    <t>0.674</t>
+  </si>
+  <si>
+    <t>0.371+/-0.003</t>
+  </si>
+  <si>
+    <t>0.366+/-0.024</t>
+  </si>
+  <si>
+    <t>0.356</t>
+  </si>
+  <si>
+    <t>0.229+/-0.005</t>
+  </si>
+  <si>
+    <t>0.228+/-0.024</t>
+  </si>
+  <si>
+    <t>0.219</t>
+  </si>
+  <si>
+    <t>0.629+/-0.001</t>
+  </si>
+  <si>
+    <t>0.628+/-0.0</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>0.348+/-0.003</t>
+  </si>
+  <si>
+    <t>0.346+/-0.025</t>
+  </si>
+  <si>
+    <t>0.324</t>
+  </si>
+  <si>
+    <t>0.388+/-0.011</t>
+  </si>
+  <si>
+    <t>0.384+/-0.027</t>
+  </si>
+  <si>
+    <t>0.375</t>
+  </si>
+  <si>
+    <t>0.767+/-0.004</t>
+  </si>
+  <si>
+    <t>0.71+/-0.0</t>
+  </si>
+  <si>
+    <t>0.707</t>
+  </si>
+  <si>
+    <t>0.755+/-0.043</t>
+  </si>
+  <si>
+    <t>0.448+/-0.086</t>
+  </si>
+  <si>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>0.241+/-0.051</t>
+  </si>
+  <si>
+    <t>0.138+/-0.027</t>
+  </si>
+  <si>
+    <t>0.132</t>
+  </si>
+  <si>
+    <t>4.122+/-1.359</t>
+  </si>
+  <si>
+    <t>0.799+/-0.007</t>
+  </si>
+  <si>
+    <t>0.691+/-0.0</t>
+  </si>
+  <si>
+    <t>0.862+/-0.035</t>
+  </si>
+  <si>
+    <t>0.352+/-0.036</t>
+  </si>
+  <si>
+    <t>0.398</t>
+  </si>
+  <si>
+    <t>0.33+/-0.039</t>
+  </si>
+  <si>
+    <t>0.135+/-0.021</t>
+  </si>
+  <si>
+    <t>0.136</t>
+  </si>
+  <si>
+    <t>0.069+/-0.002</t>
+  </si>
+  <si>
+    <t>0.78+/-0.006</t>
+  </si>
+  <si>
+    <t>0.704+/-0.0</t>
+  </si>
+  <si>
+    <t>0.693</t>
+  </si>
+  <si>
+    <t>0.806+/-0.026</t>
+  </si>
+  <si>
+    <t>0.404+/-0.044</t>
+  </si>
+  <si>
+    <t>0.351</t>
+  </si>
+  <si>
+    <t>0.27+/-0.029</t>
+  </si>
+  <si>
+    <t>0.142+/-0.027</t>
+  </si>
+  <si>
+    <t>0.093+/-0.004</t>
+  </si>
+  <si>
+    <t>0.736+/-0.001</t>
+  </si>
+  <si>
+    <t>0.726+/-0.0</t>
+  </si>
+  <si>
+    <t>0.724</t>
+  </si>
+  <si>
+    <t>0.869+/-0.017</t>
+  </si>
+  <si>
+    <t>0.602+/-0.127</t>
+  </si>
+  <si>
+    <t>0.538</t>
+  </si>
+  <si>
+    <t>0.057+/-0.004</t>
+  </si>
+  <si>
+    <t>0.033+/-0.01</t>
+  </si>
+  <si>
+    <t>0.027</t>
+  </si>
+  <si>
+    <t>15.599+/-1.179</t>
+  </si>
+  <si>
+    <t>0.692+/-0.0</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.974+/-0.001</t>
+  </si>
+  <si>
+    <t>0.668+/-0.0</t>
+  </si>
+  <si>
+    <t>0.667</t>
   </si>
   <si>
     <t>1.0+/-0.0</t>
   </si>
   <si>
-    <t>0.376+/-0.051</t>
+    <t>0.393+/-0.055</t>
+  </si>
+  <si>
+    <t>0.389</t>
+  </si>
+  <si>
+    <t>0.916+/-0.002</t>
+  </si>
+  <si>
+    <t>0.147+/-0.024</t>
+  </si>
+  <si>
+    <t>0.143</t>
+  </si>
+  <si>
+    <t>0.694+/-0.001</t>
+  </si>
+  <si>
+    <t>0.693+/-0.0</t>
+  </si>
+  <si>
+    <t>0.691</t>
+  </si>
+  <si>
+    <t>0.558+/-0.021</t>
+  </si>
+  <si>
+    <t>0.518+/-0.114</t>
+  </si>
+  <si>
+    <t>0.486</t>
+  </si>
+  <si>
+    <t>0.037+/-0.005</t>
+  </si>
+  <si>
+    <t>0.033+/-0.012</t>
+  </si>
+  <si>
+    <t>0.26+/-0.037</t>
+  </si>
+  <si>
+    <t>0.651+/-0.002</t>
+  </si>
+  <si>
+    <t>0.65+/-0.0</t>
+  </si>
+  <si>
+    <t>0.649</t>
+  </si>
+  <si>
+    <t>0.387+/-0.004</t>
+  </si>
+  <si>
+    <t>0.386+/-0.03</t>
   </si>
   <si>
     <t>0.386</t>
   </si>
   <si>
-    <t>0.915+/-0.002</t>
-  </si>
-  <si>
-    <t>0.112+/-0.02</t>
-  </si>
-  <si>
-    <t>0.118</t>
-  </si>
-  <si>
-    <t>0.725+/-0.001</t>
-  </si>
-  <si>
-    <t>0.724+/-0.0</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.543+/-0.015</t>
-  </si>
-  <si>
-    <t>0.537+/-0.116</t>
-  </si>
-  <si>
-    <t>0.486</t>
-  </si>
-  <si>
-    <t>0.04+/-0.005</t>
-  </si>
-  <si>
-    <t>0.041+/-0.009</t>
-  </si>
-  <si>
-    <t>0.033</t>
-  </si>
-  <si>
-    <t>0.226+/-0.06</t>
-  </si>
-  <si>
-    <t>0.677+/-0.001</t>
+    <t>0.227+/-0.004</t>
+  </si>
+  <si>
+    <t>0.227+/-0.022</t>
+  </si>
+  <si>
+    <t>0.232</t>
+  </si>
+  <si>
+    <t>0.609+/-0.001</t>
+  </si>
+  <si>
+    <t>0.606+/-0.0</t>
+  </si>
+  <si>
+    <t>0.595</t>
+  </si>
+  <si>
+    <t>0.368+/-0.001</t>
+  </si>
+  <si>
+    <t>0.364+/-0.012</t>
+  </si>
+  <si>
+    <t>0.349</t>
+  </si>
+  <si>
+    <t>0.378+/-0.005</t>
+  </si>
+  <si>
+    <t>0.373+/-0.024</t>
+  </si>
+  <si>
+    <t>0.366</t>
+  </si>
+  <si>
+    <t>0.007+/-0.0</t>
+  </si>
+  <si>
+    <t>0.745+/-0.009</t>
+  </si>
+  <si>
+    <t>0.681</t>
+  </si>
+  <si>
+    <t>0.753+/-0.047</t>
+  </si>
+  <si>
+    <t>0.391+/-0.04</t>
+  </si>
+  <si>
+    <t>0.446</t>
+  </si>
+  <si>
+    <t>0.26+/-0.045</t>
+  </si>
+  <si>
+    <t>0.135+/-0.023</t>
+  </si>
+  <si>
+    <t>4.69+/-1.762</t>
+  </si>
+  <si>
+    <t>0.766+/-0.006</t>
+  </si>
+  <si>
+    <t>0.669+/-0.0</t>
+  </si>
+  <si>
+    <t>0.684</t>
+  </si>
+  <si>
+    <t>0.843+/-0.036</t>
+  </si>
+  <si>
+    <t>0.4+/-0.073</t>
+  </si>
+  <si>
+    <t>0.463</t>
+  </si>
+  <si>
+    <t>0.299+/-0.03</t>
+  </si>
+  <si>
+    <t>0.143+/-0.028</t>
+  </si>
+  <si>
+    <t>0.164</t>
+  </si>
+  <si>
+    <t>0.057+/-0.007</t>
+  </si>
+  <si>
+    <t>0.748+/-0.006</t>
   </si>
   <si>
     <t>0.675+/-0.0</t>
   </si>
   <si>
-    <t>0.669</t>
-  </si>
-  <si>
-    <t>0.371+/-0.003</t>
-  </si>
-  <si>
-    <t>0.365+/-0.024</t>
-  </si>
-  <si>
-    <t>0.349</t>
-  </si>
-  <si>
-    <t>0.24+/-0.006</t>
-  </si>
-  <si>
-    <t>0.238+/-0.025</t>
-  </si>
-  <si>
-    <t>0.227</t>
-  </si>
-  <si>
-    <t>0.007+/-0.002</t>
-  </si>
-  <si>
-    <t>0.627+/-0.001</t>
-  </si>
-  <si>
-    <t>0.627+/-0.0</t>
-  </si>
-  <si>
-    <t>0.61</t>
-  </si>
-  <si>
-    <t>0.348+/-0.002</t>
-  </si>
-  <si>
-    <t>0.348+/-0.028</t>
-  </si>
-  <si>
-    <t>0.322</t>
-  </si>
-  <si>
-    <t>0.395+/-0.008</t>
-  </si>
-  <si>
-    <t>0.394+/-0.023</t>
-  </si>
-  <si>
-    <t>0.371</t>
-  </si>
-  <si>
-    <t>0.007+/-0.0</t>
-  </si>
-  <si>
-    <t>0.773+/-0.006</t>
-  </si>
-  <si>
-    <t>0.697+/-0.0</t>
-  </si>
-  <si>
-    <t>0.71</t>
-  </si>
-  <si>
-    <t>0.75+/-0.044</t>
-  </si>
-  <si>
-    <t>0.378+/-0.077</t>
-  </si>
-  <si>
-    <t>0.437</t>
-  </si>
-  <si>
-    <t>0.276+/-0.048</t>
-  </si>
-  <si>
-    <t>0.141+/-0.039</t>
-  </si>
-  <si>
-    <t>0.167</t>
-  </si>
-  <si>
-    <t>4.097+/-0.726</t>
-  </si>
-  <si>
-    <t>0.8+/-0.008</t>
-  </si>
-  <si>
-    <t>0.69+/-0.0</t>
-  </si>
-  <si>
-    <t>0.699</t>
-  </si>
-  <si>
-    <t>0.853+/-0.031</t>
-  </si>
-  <si>
-    <t>0.354+/-0.043</t>
-  </si>
-  <si>
-    <t>0.376</t>
-  </si>
-  <si>
-    <t>0.337+/-0.041</t>
-  </si>
-  <si>
-    <t>0.139+/-0.026</t>
-  </si>
-  <si>
-    <t>0.132</t>
-  </si>
-  <si>
-    <t>0.065+/-0.002</t>
-  </si>
-  <si>
-    <t>0.78+/-0.006</t>
-  </si>
-  <si>
-    <t>0.699+/-0.0</t>
-  </si>
-  <si>
-    <t>0.69</t>
-  </si>
-  <si>
-    <t>0.808+/-0.039</t>
-  </si>
-  <si>
-    <t>0.381+/-0.047</t>
-  </si>
-  <si>
-    <t>0.348</t>
-  </si>
-  <si>
-    <t>0.273+/-0.038</t>
-  </si>
-  <si>
-    <t>0.136+/-0.026</t>
-  </si>
-  <si>
-    <t>0.136</t>
-  </si>
-  <si>
-    <t>0.084+/-0.003</t>
-  </si>
-  <si>
-    <t>0.736+/-0.001</t>
-  </si>
-  <si>
-    <t>0.725+/-0.0</t>
-  </si>
-  <si>
-    <t>0.724</t>
-  </si>
-  <si>
-    <t>0.87+/-0.018</t>
-  </si>
-  <si>
-    <t>0.595+/-0.192</t>
-  </si>
-  <si>
-    <t>0.538</t>
-  </si>
-  <si>
-    <t>0.057+/-0.003</t>
-  </si>
-  <si>
-    <t>0.03+/-0.009</t>
-  </si>
-  <si>
-    <t>0.027</t>
-  </si>
-  <si>
-    <t>16.925+/-1.803</t>
-  </si>
-  <si>
-    <t>0.974+/-0.001</t>
-  </si>
-  <si>
-    <t>0.668+/-0.0</t>
-  </si>
-  <si>
-    <t>0.667</t>
-  </si>
-  <si>
-    <t>0.393+/-0.055</t>
-  </si>
-  <si>
-    <t>0.389</t>
-  </si>
-  <si>
-    <t>0.916+/-0.002</t>
-  </si>
-  <si>
-    <t>0.147+/-0.024</t>
-  </si>
-  <si>
-    <t>0.143</t>
-  </si>
-  <si>
-    <t>0.694+/-0.001</t>
-  </si>
-  <si>
-    <t>0.693+/-0.0</t>
-  </si>
-  <si>
-    <t>0.691</t>
-  </si>
-  <si>
-    <t>0.558+/-0.021</t>
-  </si>
-  <si>
-    <t>0.518+/-0.114</t>
-  </si>
-  <si>
-    <t>0.037+/-0.005</t>
-  </si>
-  <si>
-    <t>0.033+/-0.012</t>
-  </si>
-  <si>
-    <t>0.031</t>
-  </si>
-  <si>
-    <t>0.248+/-0.046</t>
-  </si>
-  <si>
-    <t>0.651+/-0.002</t>
-  </si>
-  <si>
-    <t>0.65+/-0.0</t>
-  </si>
-  <si>
-    <t>0.649</t>
-  </si>
-  <si>
-    <t>0.387+/-0.004</t>
-  </si>
-  <si>
-    <t>0.386+/-0.03</t>
-  </si>
-  <si>
-    <t>0.227+/-0.004</t>
-  </si>
-  <si>
-    <t>0.227+/-0.022</t>
-  </si>
-  <si>
-    <t>0.232</t>
-  </si>
-  <si>
-    <t>0.609+/-0.001</t>
-  </si>
-  <si>
-    <t>0.606+/-0.0</t>
-  </si>
-  <si>
-    <t>0.595</t>
-  </si>
-  <si>
-    <t>0.368+/-0.001</t>
-  </si>
-  <si>
-    <t>0.364+/-0.012</t>
-  </si>
-  <si>
-    <t>0.378+/-0.005</t>
-  </si>
-  <si>
-    <t>0.373+/-0.024</t>
-  </si>
-  <si>
-    <t>0.366</t>
-  </si>
-  <si>
-    <t>0.006+/-0.0</t>
-  </si>
-  <si>
-    <t>0.748+/-0.008</t>
-  </si>
-  <si>
-    <t>0.671+/-0.0</t>
-  </si>
-  <si>
-    <t>0.683</t>
-  </si>
-  <si>
-    <t>0.741+/-0.035</t>
-  </si>
-  <si>
-    <t>0.414+/-0.032</t>
-  </si>
-  <si>
-    <t>0.451</t>
-  </si>
-  <si>
-    <t>0.283+/-0.045</t>
-  </si>
-  <si>
-    <t>0.16+/-0.038</t>
-  </si>
-  <si>
-    <t>0.138</t>
-  </si>
-  <si>
-    <t>3.268+/-0.798</t>
-  </si>
-  <si>
-    <t>0.766+/-0.006</t>
-  </si>
-  <si>
-    <t>0.845+/-0.035</t>
-  </si>
-  <si>
-    <t>0.408+/-0.068</t>
-  </si>
-  <si>
-    <t>0.461</t>
-  </si>
-  <si>
-    <t>0.298+/-0.031</t>
-  </si>
-  <si>
-    <t>0.145+/-0.025</t>
-  </si>
-  <si>
-    <t>0.164</t>
-  </si>
-  <si>
-    <t>0.748+/-0.005</t>
-  </si>
-  <si>
-    <t>0.676+/-0.0</t>
-  </si>
-  <si>
-    <t>0.661</t>
-  </si>
-  <si>
-    <t>0.819+/-0.051</t>
-  </si>
-  <si>
-    <t>0.411+/-0.042</t>
-  </si>
-  <si>
-    <t>0.374</t>
-  </si>
-  <si>
-    <t>0.237+/-0.026</t>
-  </si>
-  <si>
-    <t>0.118+/-0.027</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>0.065+/-0.005</t>
+    <t>0.664</t>
+  </si>
+  <si>
+    <t>0.817+/-0.047</t>
+  </si>
+  <si>
+    <t>0.399+/-0.055</t>
+  </si>
+  <si>
+    <t>0.388</t>
+  </si>
+  <si>
+    <t>0.237+/-0.027</t>
+  </si>
+  <si>
+    <t>0.111+/-0.025</t>
+  </si>
+  <si>
+    <t>0.157</t>
+  </si>
+  <si>
+    <t>0.068+/-0.006</t>
   </si>
   <si>
     <t>0.707+/-0.001</t>
@@ -952,7 +976,7 @@
     <t>0.028</t>
   </si>
   <si>
-    <t>14.818+/-0.093</t>
+    <t>23.089+/-2.965</t>
   </si>
 </sst>
 </file>
@@ -1353,28 +1377,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2">
-        <v>0.7986820871436255</v>
+        <v>78</v>
+      </c>
+      <c r="J2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1382,31 +1406,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3">
-        <v>0.7986820871436255</v>
+        <v>59</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1414,31 +1438,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="I4" t="s">
-        <v>87</v>
-      </c>
-      <c r="J4">
-        <v>0.7983870967741935</v>
+        <v>79</v>
+      </c>
+      <c r="J4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1446,31 +1470,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I5" t="s">
-        <v>88</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="J5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1478,31 +1502,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1510,31 +1534,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H7" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1542,31 +1566,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1574,31 +1598,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="J9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1606,31 +1630,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s">
-        <v>91</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="J10" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1638,31 +1662,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G11" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="H11" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s">
-        <v>92</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="J11" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1712,31 +1736,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="G2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="H2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="I2" t="s">
-        <v>156</v>
-      </c>
-      <c r="J2">
-        <v>0.8500537923614847</v>
+        <v>150</v>
+      </c>
+      <c r="J2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1747,28 +1771,28 @@
         <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="H3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="I3" t="s">
-        <v>102</v>
-      </c>
-      <c r="J3">
-        <v>0.8500537923614847</v>
+        <v>141</v>
+      </c>
+      <c r="J3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1779,28 +1803,28 @@
         <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="I4" t="s">
-        <v>157</v>
-      </c>
-      <c r="J4">
-        <v>0.85</v>
+        <v>151</v>
+      </c>
+      <c r="J4" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1808,31 +1832,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="I5" t="s">
-        <v>158</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="J5" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1840,31 +1864,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F6" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G6" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H6" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="I6" t="s">
-        <v>159</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>153</v>
+      </c>
+      <c r="J6" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1872,31 +1896,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="H7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>154</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1904,31 +1928,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F8" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="G8" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="I8" t="s">
-        <v>160</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="J8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1936,31 +1960,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F9" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G9" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="H9" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>156</v>
+      </c>
+      <c r="J9" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1968,31 +1992,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F10" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G10" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="H10" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="I10" t="s">
-        <v>161</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>157</v>
+      </c>
+      <c r="J10" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2000,31 +2024,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="F11" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G11" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H11" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I11" t="s">
-        <v>162</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>158</v>
+      </c>
+      <c r="J11" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2074,31 +2098,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I2" t="s">
-        <v>231</v>
-      </c>
-      <c r="J2">
-        <v>0.7231038192576654</v>
+        <v>224</v>
+      </c>
+      <c r="J2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2106,31 +2130,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="H3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="I3" t="s">
-        <v>232</v>
-      </c>
-      <c r="J3">
-        <v>0.7231038192576654</v>
+        <v>225</v>
+      </c>
+      <c r="J3" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2138,31 +2162,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F4" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="H4" t="s">
-        <v>223</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>233</v>
-      </c>
-      <c r="J4">
-        <v>0.7231182795698925</v>
+        <v>226</v>
+      </c>
+      <c r="J4" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2170,31 +2194,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F5" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H5" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="I5" t="s">
-        <v>234</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>227</v>
+      </c>
+      <c r="J5" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2202,31 +2226,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F6" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G6" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H6" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="I6" t="s">
-        <v>235</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>228</v>
+      </c>
+      <c r="J6" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2234,31 +2258,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I7" t="s">
-        <v>236</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>229</v>
+      </c>
+      <c r="J7" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2266,31 +2290,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G8" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H8" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="I8" t="s">
-        <v>237</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>230</v>
+      </c>
+      <c r="J8" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2298,31 +2322,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>169</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E9" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F9" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G9" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="I9" t="s">
-        <v>238</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>231</v>
+      </c>
+      <c r="J9" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2330,31 +2354,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D10" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F10" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G10" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H10" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="I10" t="s">
-        <v>239</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>176</v>
+      </c>
+      <c r="J10" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2362,31 +2386,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>180</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E11" t="s">
-        <v>200</v>
+        <v>129</v>
       </c>
       <c r="F11" t="s">
-        <v>210</v>
+        <v>57</v>
       </c>
       <c r="G11" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H11" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="I11" t="s">
-        <v>240</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>232</v>
+      </c>
+      <c r="J11" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -2436,31 +2460,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I2" t="s">
-        <v>302</v>
-      </c>
-      <c r="J2">
-        <v>0.6919042495965573</v>
+        <v>300</v>
+      </c>
+      <c r="J2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2468,31 +2492,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G3" t="s">
-        <v>109</v>
+        <v>246</v>
       </c>
       <c r="H3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I3" t="s">
-        <v>303</v>
-      </c>
-      <c r="J3">
-        <v>0.6919042495965573</v>
+        <v>301</v>
+      </c>
+      <c r="J3" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2500,31 +2524,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G4" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="H4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I4" t="s">
-        <v>304</v>
-      </c>
-      <c r="J4">
-        <v>0.6919354838709677</v>
+        <v>302</v>
+      </c>
+      <c r="J4" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2532,31 +2556,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I5" t="s">
-        <v>305</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>303</v>
+      </c>
+      <c r="J5" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2564,31 +2588,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>244</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D6" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I6" t="s">
-        <v>306</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>304</v>
+      </c>
+      <c r="J6" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2596,31 +2620,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>245</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>176</v>
+        <v>250</v>
       </c>
       <c r="D7" t="s">
-        <v>167</v>
+        <v>259</v>
       </c>
       <c r="E7" t="s">
-        <v>186</v>
+        <v>268</v>
       </c>
       <c r="F7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I7" t="s">
-        <v>307</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>305</v>
+      </c>
+      <c r="J7" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2628,31 +2652,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>246</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D8" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F8" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I8" t="s">
-        <v>308</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>306</v>
+      </c>
+      <c r="J8" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2660,31 +2684,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>247</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D9" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F9" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I9" t="s">
-        <v>309</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>307</v>
+      </c>
+      <c r="J9" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2692,31 +2716,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>248</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D10" t="s">
-        <v>265</v>
+        <v>185</v>
       </c>
       <c r="E10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G10" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="H10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I10" t="s">
-        <v>310</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>308</v>
+      </c>
+      <c r="J10" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2724,31 +2748,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>257</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>262</v>
       </c>
       <c r="E11" t="s">
-        <v>274</v>
+        <v>129</v>
       </c>
       <c r="F11" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G11" t="s">
-        <v>75</v>
+        <v>289</v>
       </c>
       <c r="H11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I11" t="s">
-        <v>311</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>309</v>
+      </c>
+      <c r="J11" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_10_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_10_1_replicas.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="316">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -88,895 +88,883 @@
     <t>0.0</t>
   </si>
   <si>
-    <t>0.961+/-0.001</t>
-  </si>
-  <si>
-    <t>0.79+/-0.0</t>
-  </si>
-  <si>
-    <t>0.788</t>
-  </si>
-  <si>
-    <t>0.999+/-0.0</t>
-  </si>
-  <si>
-    <t>0.365+/-0.09</t>
-  </si>
-  <si>
-    <t>0.372</t>
-  </si>
-  <si>
-    <t>0.808+/-0.004</t>
-  </si>
-  <si>
-    <t>0.071+/-0.026</t>
-  </si>
-  <si>
-    <t>0.077</t>
+    <t>0.955+/-0.012</t>
+  </si>
+  <si>
+    <t>0.78+/-0.0</t>
+  </si>
+  <si>
+    <t>0.786</t>
+  </si>
+  <si>
+    <t>0.949+/-0.101</t>
+  </si>
+  <si>
+    <t>0.334+/-0.101</t>
+  </si>
+  <si>
+    <t>0.354</t>
+  </si>
+  <si>
+    <t>0.846+/-0.076</t>
+  </si>
+  <si>
+    <t>0.101+/-0.086</t>
+  </si>
+  <si>
+    <t>0.075</t>
+  </si>
+  <si>
+    <t>0.002+/-0.0</t>
+  </si>
+  <si>
+    <t>0.537+/-0.059</t>
+  </si>
+  <si>
+    <t>0.2+/-0.332</t>
+  </si>
+  <si>
+    <t>0.002+/-0.003</t>
+  </si>
+  <si>
+    <t>0.381+/-0.028</t>
+  </si>
+  <si>
+    <t>0.489+/-0.024</t>
+  </si>
+  <si>
+    <t>0.486+/-0.0</t>
+  </si>
+  <si>
+    <t>0.465</t>
+  </si>
+  <si>
+    <t>0.247+/-0.005</t>
+  </si>
+  <si>
+    <t>0.245+/-0.015</t>
+  </si>
+  <si>
+    <t>0.226</t>
+  </si>
+  <si>
+    <t>0.751+/-0.028</t>
+  </si>
+  <si>
+    <t>0.74+/-0.039</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>0.005+/-0.0</t>
+  </si>
+  <si>
+    <t>0.692+/-0.003</t>
+  </si>
+  <si>
+    <t>0.692+/-0.0</t>
+  </si>
+  <si>
+    <t>0.675</t>
+  </si>
+  <si>
+    <t>0.312+/-0.002</t>
+  </si>
+  <si>
+    <t>0.311+/-0.023</t>
+  </si>
+  <si>
+    <t>0.278</t>
+  </si>
+  <si>
+    <t>0.438+/-0.012</t>
+  </si>
+  <si>
+    <t>0.436+/-0.033</t>
+  </si>
+  <si>
+    <t>0.381</t>
+  </si>
+  <si>
+    <t>0.006+/-0.001</t>
+  </si>
+  <si>
+    <t>0.82+/-0.006</t>
+  </si>
+  <si>
+    <t>0.779+/-0.0</t>
+  </si>
+  <si>
+    <t>0.794</t>
+  </si>
+  <si>
+    <t>0.729+/-0.045</t>
+  </si>
+  <si>
+    <t>0.299+/-0.065</t>
+  </si>
+  <si>
+    <t>0.404</t>
+  </si>
+  <si>
+    <t>0.173+/-0.041</t>
+  </si>
+  <si>
+    <t>0.069+/-0.022</t>
+  </si>
+  <si>
+    <t>0.051</t>
+  </si>
+  <si>
+    <t>3.477+/-0.706</t>
+  </si>
+  <si>
+    <t>0.835+/-0.003</t>
+  </si>
+  <si>
+    <t>0.777+/-0.0</t>
+  </si>
+  <si>
+    <t>0.772</t>
+  </si>
+  <si>
+    <t>0.855+/-0.054</t>
+  </si>
+  <si>
+    <t>0.301+/-0.092</t>
+  </si>
+  <si>
+    <t>0.298</t>
+  </si>
+  <si>
+    <t>0.222+/-0.033</t>
+  </si>
+  <si>
+    <t>0.083+/-0.038</t>
+  </si>
+  <si>
+    <t>0.099</t>
+  </si>
+  <si>
+    <t>0.053+/-0.003</t>
+  </si>
+  <si>
+    <t>0.831+/-0.004</t>
+  </si>
+  <si>
+    <t>0.781+/-0.0</t>
+  </si>
+  <si>
+    <t>0.855+/-0.047</t>
+  </si>
+  <si>
+    <t>0.32+/-0.081</t>
+  </si>
+  <si>
+    <t>0.275</t>
+  </si>
+  <si>
+    <t>0.196+/-0.036</t>
+  </si>
+  <si>
+    <t>0.074+/-0.019</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>0.06+/-0.003</t>
+  </si>
+  <si>
+    <t>0.801+/-0.0</t>
+  </si>
+  <si>
+    <t>0.799</t>
+  </si>
+  <si>
+    <t>0.915+/-0.039</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>0.01+/-0.001</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>10.961+/-0.826</t>
+  </si>
+  <si>
+    <t>0.85+/-0.0</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.968+/-0.001</t>
+  </si>
+  <si>
+    <t>0.848+/-0.0</t>
+  </si>
+  <si>
+    <t>0.846</t>
+  </si>
+  <si>
+    <t>1.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.452+/-0.073</t>
+  </si>
+  <si>
+    <t>0.395</t>
+  </si>
+  <si>
+    <t>0.785+/-0.004</t>
+  </si>
+  <si>
+    <t>0.058+/-0.01</t>
+  </si>
+  <si>
+    <t>0.054</t>
+  </si>
+  <si>
+    <t>0.6+/-0.17</t>
+  </si>
+  <si>
+    <t>0.1+/-0.3</t>
+  </si>
+  <si>
+    <t>0.001+/-0.003</t>
+  </si>
+  <si>
+    <t>0.384+/-0.059</t>
+  </si>
+  <si>
+    <t>0.663+/-0.03</t>
+  </si>
+  <si>
+    <t>0.66+/-0.0</t>
+  </si>
+  <si>
+    <t>0.639</t>
+  </si>
+  <si>
+    <t>0.235+/-0.01</t>
+  </si>
+  <si>
+    <t>0.231+/-0.016</t>
+  </si>
+  <si>
+    <t>0.206</t>
+  </si>
+  <si>
+    <t>0.547+/-0.041</t>
+  </si>
+  <si>
+    <t>0.538+/-0.037</t>
+  </si>
+  <si>
+    <t>0.491</t>
+  </si>
+  <si>
+    <t>0.004+/-0.0</t>
+  </si>
+  <si>
+    <t>0.736+/-0.005</t>
+  </si>
+  <si>
+    <t>0.735+/-0.0</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>0.258+/-0.003</t>
+  </si>
+  <si>
+    <t>0.256+/-0.017</t>
+  </si>
+  <si>
+    <t>0.212</t>
+  </si>
+  <si>
+    <t>0.404+/-0.013</t>
+  </si>
+  <si>
+    <t>0.402+/-0.027</t>
+  </si>
+  <si>
+    <t>0.344</t>
+  </si>
+  <si>
+    <t>0.863+/-0.004</t>
+  </si>
+  <si>
+    <t>0.839+/-0.0</t>
+  </si>
+  <si>
+    <t>0.838</t>
+  </si>
+  <si>
+    <t>0.753+/-0.081</t>
+  </si>
+  <si>
+    <t>0.298+/-0.176</t>
+  </si>
+  <si>
+    <t>0.194</t>
+  </si>
+  <si>
+    <t>0.128+/-0.036</t>
+  </si>
+  <si>
+    <t>0.041+/-0.024</t>
+  </si>
+  <si>
+    <t>0.025</t>
+  </si>
+  <si>
+    <t>3.286+/-1.113</t>
+  </si>
+  <si>
+    <t>0.879+/-0.003</t>
+  </si>
+  <si>
+    <t>0.83+/-0.0</t>
+  </si>
+  <si>
+    <t>0.835</t>
+  </si>
+  <si>
+    <t>0.888+/-0.018</t>
+  </si>
+  <si>
+    <t>0.264+/-0.057</t>
+  </si>
+  <si>
+    <t>0.245</t>
+  </si>
+  <si>
+    <t>0.223+/-0.024</t>
+  </si>
+  <si>
+    <t>0.075+/-0.019</t>
+  </si>
+  <si>
+    <t>0.047</t>
+  </si>
+  <si>
+    <t>0.053+/-0.005</t>
+  </si>
+  <si>
+    <t>0.875+/-0.003</t>
+  </si>
+  <si>
+    <t>0.828+/-0.0</t>
+  </si>
+  <si>
+    <t>0.831</t>
+  </si>
+  <si>
+    <t>0.874+/-0.041</t>
+  </si>
+  <si>
+    <t>0.212+/-0.054</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.192+/-0.023</t>
+  </si>
+  <si>
+    <t>0.055+/-0.021</t>
+  </si>
+  <si>
+    <t>0.043</t>
+  </si>
+  <si>
+    <t>0.058+/-0.003</t>
+  </si>
+  <si>
+    <t>0.852+/-0.0</t>
+  </si>
+  <si>
+    <t>0.953+/-0.062</t>
+  </si>
+  <si>
+    <t>0.05+/-0.15</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.004</t>
+  </si>
+  <si>
+    <t>8.233+/-0.067</t>
+  </si>
+  <si>
+    <t>0.723+/-0.0</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.97+/-0.018</t>
+  </si>
+  <si>
+    <t>0.698+/-0.0</t>
+  </si>
+  <si>
+    <t>0.709</t>
+  </si>
+  <si>
+    <t>0.977+/-0.069</t>
+  </si>
+  <si>
+    <t>0.381+/-0.06</t>
+  </si>
+  <si>
+    <t>0.415</t>
+  </si>
+  <si>
+    <t>0.923+/-0.025</t>
+  </si>
+  <si>
+    <t>0.136+/-0.042</t>
+  </si>
+  <si>
+    <t>0.128</t>
   </si>
   <si>
     <t>0.003+/-0.0</t>
   </si>
   <si>
-    <t>0.557+/-0.06</t>
-  </si>
-  <si>
-    <t>0.2+/-0.332</t>
-  </si>
-  <si>
-    <t>0.002+/-0.0</t>
-  </si>
-  <si>
-    <t>0.002+/-0.003</t>
-  </si>
-  <si>
-    <t>0.445+/-0.054</t>
-  </si>
-  <si>
-    <t>0.465+/-0.019</t>
-  </si>
-  <si>
-    <t>0.466+/-0.0</t>
-  </si>
-  <si>
-    <t>0.44</t>
-  </si>
-  <si>
-    <t>0.241+/-0.004</t>
-  </si>
-  <si>
-    <t>0.241+/-0.014</t>
-  </si>
-  <si>
-    <t>0.221</t>
-  </si>
-  <si>
-    <t>0.769+/-0.023</t>
-  </si>
-  <si>
-    <t>0.768+/-0.038</t>
-  </si>
-  <si>
-    <t>0.704</t>
+    <t>0.725+/-0.001</t>
+  </si>
+  <si>
+    <t>0.724+/-0.0</t>
+  </si>
+  <si>
+    <t>0.722</t>
+  </si>
+  <si>
+    <t>0.546+/-0.014</t>
+  </si>
+  <si>
+    <t>0.533+/-0.123</t>
+  </si>
+  <si>
+    <t>0.471</t>
+  </si>
+  <si>
+    <t>0.04+/-0.005</t>
+  </si>
+  <si>
+    <t>0.04+/-0.007</t>
+  </si>
+  <si>
+    <t>0.031</t>
+  </si>
+  <si>
+    <t>0.204+/-0.055</t>
+  </si>
+  <si>
+    <t>0.679+/-0.001</t>
+  </si>
+  <si>
+    <t>0.677+/-0.0</t>
+  </si>
+  <si>
+    <t>0.674</t>
+  </si>
+  <si>
+    <t>0.371+/-0.003</t>
+  </si>
+  <si>
+    <t>0.366+/-0.024</t>
+  </si>
+  <si>
+    <t>0.356</t>
+  </si>
+  <si>
+    <t>0.229+/-0.005</t>
+  </si>
+  <si>
+    <t>0.228+/-0.024</t>
+  </si>
+  <si>
+    <t>0.219</t>
+  </si>
+  <si>
+    <t>0.005+/-0.001</t>
+  </si>
+  <si>
+    <t>0.629+/-0.001</t>
+  </si>
+  <si>
+    <t>0.628+/-0.0</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>0.348+/-0.003</t>
+  </si>
+  <si>
+    <t>0.346+/-0.025</t>
+  </si>
+  <si>
+    <t>0.324</t>
+  </si>
+  <si>
+    <t>0.388+/-0.011</t>
+  </si>
+  <si>
+    <t>0.384+/-0.027</t>
+  </si>
+  <si>
+    <t>0.375</t>
+  </si>
+  <si>
+    <t>0.775+/-0.011</t>
+  </si>
+  <si>
+    <t>0.707</t>
+  </si>
+  <si>
+    <t>0.735+/-0.033</t>
+  </si>
+  <si>
+    <t>0.389+/-0.057</t>
+  </si>
+  <si>
+    <t>0.39</t>
+  </si>
+  <si>
+    <t>0.292+/-0.053</t>
+  </si>
+  <si>
+    <t>0.152+/-0.036</t>
+  </si>
+  <si>
+    <t>0.103</t>
+  </si>
+  <si>
+    <t>3.352+/-0.833</t>
+  </si>
+  <si>
+    <t>0.799+/-0.008</t>
+  </si>
+  <si>
+    <t>0.689+/-0.0</t>
+  </si>
+  <si>
+    <t>0.708</t>
+  </si>
+  <si>
+    <t>0.856+/-0.029</t>
+  </si>
+  <si>
+    <t>0.348+/-0.036</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>0.33+/-0.038</t>
+  </si>
+  <si>
+    <t>0.137+/-0.023</t>
+  </si>
+  <si>
+    <t>0.144</t>
+  </si>
+  <si>
+    <t>0.057+/-0.006</t>
+  </si>
+  <si>
+    <t>0.779+/-0.006</t>
+  </si>
+  <si>
+    <t>0.701+/-0.0</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.806+/-0.03</t>
+  </si>
+  <si>
+    <t>0.39+/-0.051</t>
+  </si>
+  <si>
+    <t>0.347</t>
+  </si>
+  <si>
+    <t>0.269+/-0.031</t>
+  </si>
+  <si>
+    <t>0.136+/-0.028</t>
+  </si>
+  <si>
+    <t>0.065+/-0.004</t>
+  </si>
+  <si>
+    <t>0.736+/-0.001</t>
+  </si>
+  <si>
+    <t>0.726+/-0.0</t>
+  </si>
+  <si>
+    <t>0.724</t>
+  </si>
+  <si>
+    <t>0.869+/-0.017</t>
+  </si>
+  <si>
+    <t>0.602+/-0.127</t>
+  </si>
+  <si>
+    <t>0.538</t>
+  </si>
+  <si>
+    <t>0.057+/-0.004</t>
+  </si>
+  <si>
+    <t>0.033+/-0.01</t>
+  </si>
+  <si>
+    <t>0.027</t>
+  </si>
+  <si>
+    <t>13.081+/-0.103</t>
+  </si>
+  <si>
+    <t>0.969+/-0.016</t>
+  </si>
+  <si>
+    <t>0.659+/-0.0</t>
+  </si>
+  <si>
+    <t>0.667</t>
+  </si>
+  <si>
+    <t>0.979+/-0.062</t>
+  </si>
+  <si>
+    <t>0.381+/-0.059</t>
+  </si>
+  <si>
+    <t>0.393</t>
+  </si>
+  <si>
+    <t>0.924+/-0.025</t>
+  </si>
+  <si>
+    <t>0.155+/-0.03</t>
+  </si>
+  <si>
+    <t>0.147</t>
+  </si>
+  <si>
+    <t>0.694+/-0.001</t>
+  </si>
+  <si>
+    <t>0.691</t>
+  </si>
+  <si>
+    <t>0.555+/-0.019</t>
+  </si>
+  <si>
+    <t>0.51+/-0.116</t>
+  </si>
+  <si>
+    <t>0.486</t>
+  </si>
+  <si>
+    <t>0.037+/-0.005</t>
+  </si>
+  <si>
+    <t>0.033+/-0.011</t>
+  </si>
+  <si>
+    <t>0.229+/-0.05</t>
+  </si>
+  <si>
+    <t>0.651+/-0.002</t>
+  </si>
+  <si>
+    <t>0.65+/-0.0</t>
+  </si>
+  <si>
+    <t>0.648</t>
+  </si>
+  <si>
+    <t>0.387+/-0.004</t>
+  </si>
+  <si>
+    <t>0.386+/-0.03</t>
+  </si>
+  <si>
+    <t>0.384</t>
+  </si>
+  <si>
+    <t>0.227+/-0.004</t>
+  </si>
+  <si>
+    <t>0.227+/-0.022</t>
+  </si>
+  <si>
+    <t>0.234</t>
+  </si>
+  <si>
+    <t>0.608+/-0.002</t>
+  </si>
+  <si>
+    <t>0.607+/-0.0</t>
+  </si>
+  <si>
+    <t>0.595</t>
+  </si>
+  <si>
+    <t>0.367+/-0.001</t>
+  </si>
+  <si>
+    <t>0.365+/-0.01</t>
+  </si>
+  <si>
+    <t>0.349</t>
+  </si>
+  <si>
+    <t>0.379+/-0.005</t>
+  </si>
+  <si>
+    <t>0.374+/-0.022</t>
+  </si>
+  <si>
+    <t>0.366</t>
   </si>
   <si>
     <t>0.006+/-0.0</t>
   </si>
   <si>
-    <t>0.689+/-0.005</t>
-  </si>
-  <si>
-    <t>0.686+/-0.0</t>
-  </si>
-  <si>
-    <t>0.655</t>
-  </si>
-  <si>
-    <t>0.305+/-0.003</t>
-  </si>
-  <si>
-    <t>0.301+/-0.023</t>
-  </si>
-  <si>
-    <t>0.252</t>
-  </si>
-  <si>
-    <t>0.428+/-0.013</t>
-  </si>
-  <si>
-    <t>0.422+/-0.033</t>
-  </si>
-  <si>
-    <t>0.36</t>
-  </si>
-  <si>
-    <t>0.007+/-0.001</t>
-  </si>
-  <si>
-    <t>0.825+/-0.003</t>
-  </si>
-  <si>
-    <t>0.783+/-0.0</t>
-  </si>
-  <si>
-    <t>0.774</t>
-  </si>
-  <si>
-    <t>0.759+/-0.03</t>
-  </si>
-  <si>
-    <t>0.361+/-0.09</t>
-  </si>
-  <si>
-    <t>0.247</t>
-  </si>
-  <si>
-    <t>0.195+/-0.031</t>
-  </si>
-  <si>
-    <t>0.086+/-0.027</t>
-  </si>
-  <si>
-    <t>0.059</t>
-  </si>
-  <si>
-    <t>4.292+/-0.748</t>
-  </si>
-  <si>
-    <t>0.835+/-0.003</t>
-  </si>
-  <si>
-    <t>0.777+/-0.0</t>
-  </si>
-  <si>
-    <t>0.776</t>
-  </si>
-  <si>
-    <t>0.857+/-0.052</t>
-  </si>
-  <si>
-    <t>0.3+/-0.082</t>
-  </si>
-  <si>
-    <t>0.319</t>
-  </si>
-  <si>
-    <t>0.219+/-0.033</t>
-  </si>
-  <si>
-    <t>0.082+/-0.035</t>
-  </si>
-  <si>
-    <t>0.096</t>
-  </si>
-  <si>
-    <t>0.065+/-0.002</t>
-  </si>
-  <si>
-    <t>0.831+/-0.005</t>
-  </si>
-  <si>
-    <t>0.775</t>
-  </si>
-  <si>
-    <t>0.85+/-0.037</t>
-  </si>
-  <si>
-    <t>0.331+/-0.095</t>
-  </si>
-  <si>
-    <t>0.296</t>
-  </si>
-  <si>
-    <t>0.197+/-0.034</t>
-  </si>
-  <si>
-    <t>0.075+/-0.023</t>
-  </si>
-  <si>
-    <t>0.085</t>
-  </si>
-  <si>
-    <t>0.082+/-0.002</t>
-  </si>
-  <si>
-    <t>0.801+/-0.0</t>
-  </si>
-  <si>
-    <t>0.799</t>
-  </si>
-  <si>
-    <t>0.914+/-0.037</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>0.011+/-0.001</t>
-  </si>
-  <si>
-    <t>0.005</t>
-  </si>
-  <si>
-    <t>13.524+/-1.501</t>
-  </si>
-  <si>
-    <t>0.85+/-0.0</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.963+/-0.013</t>
-  </si>
-  <si>
-    <t>0.843+/-0.0</t>
-  </si>
-  <si>
-    <t>0.845</t>
-  </si>
-  <si>
-    <t>0.967+/-0.1</t>
-  </si>
-  <si>
-    <t>0.404+/-0.096</t>
-  </si>
-  <si>
-    <t>0.368</t>
-  </si>
-  <si>
-    <t>0.806+/-0.064</t>
-  </si>
-  <si>
-    <t>0.073+/-0.075</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>0.003+/-0.001</t>
-  </si>
-  <si>
-    <t>0.567+/-0.111</t>
-  </si>
-  <si>
-    <t>0.1+/-0.3</t>
-  </si>
-  <si>
-    <t>0.001+/-0.003</t>
-  </si>
-  <si>
-    <t>0.399+/-0.065</t>
-  </si>
-  <si>
-    <t>0.67+/-0.023</t>
-  </si>
-  <si>
-    <t>0.67+/-0.0</t>
-  </si>
-  <si>
-    <t>0.654</t>
-  </si>
-  <si>
-    <t>0.235+/-0.006</t>
-  </si>
-  <si>
-    <t>0.233+/-0.016</t>
-  </si>
-  <si>
-    <t>0.21</t>
-  </si>
-  <si>
-    <t>0.526+/-0.038</t>
-  </si>
-  <si>
-    <t>0.518+/-0.04</t>
-  </si>
-  <si>
-    <t>0.473</t>
-  </si>
-  <si>
-    <t>0.005+/-0.0</t>
-  </si>
-  <si>
-    <t>0.734+/-0.003</t>
-  </si>
-  <si>
-    <t>0.733+/-0.0</t>
-  </si>
-  <si>
-    <t>0.713</t>
-  </si>
-  <si>
-    <t>0.258+/-0.002</t>
-  </si>
-  <si>
-    <t>0.257+/-0.018</t>
-  </si>
-  <si>
-    <t>0.224</t>
-  </si>
-  <si>
-    <t>0.415+/-0.008</t>
-  </si>
-  <si>
-    <t>0.413+/-0.023</t>
-  </si>
-  <si>
-    <t>0.369</t>
-  </si>
-  <si>
-    <t>0.006+/-0.001</t>
-  </si>
-  <si>
-    <t>0.864+/-0.004</t>
-  </si>
-  <si>
-    <t>0.836+/-0.0</t>
-  </si>
-  <si>
-    <t>0.844</t>
-  </si>
-  <si>
-    <t>0.779+/-0.053</t>
-  </si>
-  <si>
-    <t>0.201+/-0.123</t>
-  </si>
-  <si>
-    <t>0.286</t>
-  </si>
-  <si>
-    <t>0.135+/-0.042</t>
-  </si>
-  <si>
-    <t>0.038+/-0.033</t>
-  </si>
-  <si>
-    <t>0.029</t>
-  </si>
-  <si>
-    <t>3.601+/-0.631</t>
-  </si>
-  <si>
-    <t>0.88+/-0.003</t>
-  </si>
-  <si>
-    <t>0.828+/-0.0</t>
-  </si>
-  <si>
-    <t>0.835</t>
-  </si>
-  <si>
-    <t>0.893+/-0.021</t>
-  </si>
-  <si>
-    <t>0.253+/-0.07</t>
-  </si>
-  <si>
-    <t>0.263</t>
-  </si>
-  <si>
-    <t>0.224+/-0.025</t>
-  </si>
-  <si>
-    <t>0.072+/-0.019</t>
-  </si>
-  <si>
-    <t>0.054</t>
-  </si>
-  <si>
-    <t>0.055+/-0.005</t>
-  </si>
-  <si>
-    <t>0.874+/-0.003</t>
-  </si>
-  <si>
-    <t>0.829</t>
-  </si>
-  <si>
-    <t>0.866+/-0.044</t>
-  </si>
-  <si>
-    <t>0.205+/-0.037</t>
-  </si>
-  <si>
-    <t>0.18</t>
-  </si>
-  <si>
-    <t>0.191+/-0.023</t>
-  </si>
-  <si>
-    <t>0.053+/-0.019</t>
-  </si>
-  <si>
-    <t>0.039</t>
-  </si>
-  <si>
-    <t>0.063+/-0.004</t>
-  </si>
-  <si>
-    <t>0.852+/-0.0</t>
-  </si>
-  <si>
-    <t>0.851</t>
-  </si>
-  <si>
-    <t>0.96+/-0.052</t>
-  </si>
-  <si>
-    <t>0.05+/-0.15</t>
-  </si>
-  <si>
-    <t>0.01+/-0.001</t>
-  </si>
-  <si>
-    <t>0.004</t>
-  </si>
-  <si>
-    <t>9.225+/-0.332</t>
-  </si>
-  <si>
-    <t>0.723+/-0.0</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.97+/-0.018</t>
-  </si>
-  <si>
-    <t>0.698+/-0.0</t>
-  </si>
-  <si>
-    <t>0.709</t>
-  </si>
-  <si>
-    <t>0.977+/-0.069</t>
-  </si>
-  <si>
-    <t>0.381+/-0.06</t>
-  </si>
-  <si>
-    <t>0.415</t>
-  </si>
-  <si>
-    <t>0.923+/-0.025</t>
-  </si>
-  <si>
-    <t>0.136+/-0.042</t>
-  </si>
-  <si>
-    <t>0.128</t>
-  </si>
-  <si>
-    <t>0.725+/-0.001</t>
-  </si>
-  <si>
-    <t>0.724+/-0.0</t>
-  </si>
-  <si>
-    <t>0.722</t>
-  </si>
-  <si>
-    <t>0.546+/-0.014</t>
-  </si>
-  <si>
-    <t>0.533+/-0.123</t>
-  </si>
-  <si>
-    <t>0.471</t>
-  </si>
-  <si>
-    <t>0.04+/-0.005</t>
-  </si>
-  <si>
-    <t>0.04+/-0.007</t>
-  </si>
-  <si>
-    <t>0.031</t>
-  </si>
-  <si>
-    <t>0.201+/-0.046</t>
-  </si>
-  <si>
-    <t>0.679+/-0.001</t>
-  </si>
-  <si>
-    <t>0.677+/-0.0</t>
-  </si>
-  <si>
-    <t>0.674</t>
-  </si>
-  <si>
-    <t>0.371+/-0.003</t>
-  </si>
-  <si>
-    <t>0.366+/-0.024</t>
-  </si>
-  <si>
-    <t>0.356</t>
-  </si>
-  <si>
-    <t>0.229+/-0.005</t>
-  </si>
-  <si>
-    <t>0.228+/-0.024</t>
-  </si>
-  <si>
-    <t>0.219</t>
-  </si>
-  <si>
-    <t>0.629+/-0.001</t>
-  </si>
-  <si>
-    <t>0.628+/-0.0</t>
-  </si>
-  <si>
-    <t>0.61</t>
-  </si>
-  <si>
-    <t>0.348+/-0.003</t>
-  </si>
-  <si>
-    <t>0.346+/-0.025</t>
-  </si>
-  <si>
-    <t>0.324</t>
-  </si>
-  <si>
-    <t>0.388+/-0.011</t>
-  </si>
-  <si>
-    <t>0.384+/-0.027</t>
-  </si>
-  <si>
-    <t>0.375</t>
-  </si>
-  <si>
-    <t>0.767+/-0.004</t>
-  </si>
-  <si>
-    <t>0.71+/-0.0</t>
-  </si>
-  <si>
-    <t>0.707</t>
-  </si>
-  <si>
-    <t>0.755+/-0.043</t>
-  </si>
-  <si>
-    <t>0.448+/-0.086</t>
-  </si>
-  <si>
-    <t>0.41</t>
-  </si>
-  <si>
-    <t>0.241+/-0.051</t>
-  </si>
-  <si>
-    <t>0.138+/-0.027</t>
-  </si>
-  <si>
-    <t>0.132</t>
-  </si>
-  <si>
-    <t>4.122+/-1.359</t>
-  </si>
-  <si>
-    <t>0.799+/-0.007</t>
-  </si>
-  <si>
-    <t>0.691+/-0.0</t>
-  </si>
-  <si>
-    <t>0.862+/-0.035</t>
-  </si>
-  <si>
-    <t>0.352+/-0.036</t>
-  </si>
-  <si>
-    <t>0.398</t>
-  </si>
-  <si>
-    <t>0.33+/-0.039</t>
-  </si>
-  <si>
-    <t>0.135+/-0.021</t>
-  </si>
-  <si>
-    <t>0.136</t>
-  </si>
-  <si>
-    <t>0.069+/-0.002</t>
-  </si>
-  <si>
-    <t>0.78+/-0.006</t>
-  </si>
-  <si>
-    <t>0.704+/-0.0</t>
-  </si>
-  <si>
-    <t>0.693</t>
-  </si>
-  <si>
-    <t>0.806+/-0.026</t>
-  </si>
-  <si>
-    <t>0.404+/-0.044</t>
-  </si>
-  <si>
-    <t>0.351</t>
-  </si>
-  <si>
-    <t>0.27+/-0.029</t>
-  </si>
-  <si>
-    <t>0.142+/-0.027</t>
-  </si>
-  <si>
-    <t>0.093+/-0.004</t>
-  </si>
-  <si>
-    <t>0.736+/-0.001</t>
-  </si>
-  <si>
-    <t>0.726+/-0.0</t>
-  </si>
-  <si>
-    <t>0.724</t>
-  </si>
-  <si>
-    <t>0.869+/-0.017</t>
-  </si>
-  <si>
-    <t>0.602+/-0.127</t>
-  </si>
-  <si>
-    <t>0.538</t>
-  </si>
-  <si>
-    <t>0.057+/-0.004</t>
-  </si>
-  <si>
-    <t>0.033+/-0.01</t>
-  </si>
-  <si>
-    <t>0.027</t>
-  </si>
-  <si>
-    <t>15.599+/-1.179</t>
-  </si>
-  <si>
-    <t>0.692+/-0.0</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.974+/-0.001</t>
-  </si>
-  <si>
-    <t>0.668+/-0.0</t>
-  </si>
-  <si>
-    <t>0.667</t>
-  </si>
-  <si>
-    <t>1.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.393+/-0.055</t>
-  </si>
-  <si>
-    <t>0.389</t>
-  </si>
-  <si>
-    <t>0.916+/-0.002</t>
-  </si>
-  <si>
-    <t>0.147+/-0.024</t>
-  </si>
-  <si>
-    <t>0.143</t>
-  </si>
-  <si>
-    <t>0.694+/-0.001</t>
-  </si>
-  <si>
-    <t>0.693+/-0.0</t>
-  </si>
-  <si>
-    <t>0.691</t>
-  </si>
-  <si>
-    <t>0.558+/-0.021</t>
-  </si>
-  <si>
-    <t>0.518+/-0.114</t>
-  </si>
-  <si>
-    <t>0.486</t>
-  </si>
-  <si>
-    <t>0.037+/-0.005</t>
-  </si>
-  <si>
-    <t>0.033+/-0.012</t>
-  </si>
-  <si>
-    <t>0.26+/-0.037</t>
-  </si>
-  <si>
-    <t>0.651+/-0.002</t>
-  </si>
-  <si>
-    <t>0.65+/-0.0</t>
-  </si>
-  <si>
-    <t>0.649</t>
-  </si>
-  <si>
-    <t>0.387+/-0.004</t>
-  </si>
-  <si>
-    <t>0.386+/-0.03</t>
-  </si>
-  <si>
-    <t>0.386</t>
-  </si>
-  <si>
-    <t>0.227+/-0.004</t>
-  </si>
-  <si>
-    <t>0.227+/-0.022</t>
-  </si>
-  <si>
-    <t>0.232</t>
-  </si>
-  <si>
-    <t>0.609+/-0.001</t>
-  </si>
-  <si>
-    <t>0.606+/-0.0</t>
-  </si>
-  <si>
-    <t>0.595</t>
-  </si>
-  <si>
-    <t>0.368+/-0.001</t>
-  </si>
-  <si>
-    <t>0.364+/-0.012</t>
-  </si>
-  <si>
-    <t>0.349</t>
-  </si>
-  <si>
-    <t>0.378+/-0.005</t>
-  </si>
-  <si>
-    <t>0.373+/-0.024</t>
-  </si>
-  <si>
-    <t>0.366</t>
-  </si>
-  <si>
-    <t>0.007+/-0.0</t>
-  </si>
-  <si>
-    <t>0.745+/-0.009</t>
-  </si>
-  <si>
-    <t>0.681</t>
-  </si>
-  <si>
-    <t>0.753+/-0.047</t>
-  </si>
-  <si>
-    <t>0.391+/-0.04</t>
-  </si>
-  <si>
-    <t>0.446</t>
-  </si>
-  <si>
-    <t>0.26+/-0.045</t>
-  </si>
-  <si>
-    <t>0.135+/-0.023</t>
-  </si>
-  <si>
-    <t>4.69+/-1.762</t>
-  </si>
-  <si>
-    <t>0.766+/-0.006</t>
-  </si>
-  <si>
-    <t>0.669+/-0.0</t>
+    <t>0.75+/-0.006</t>
+  </si>
+  <si>
+    <t>0.663+/-0.0</t>
+  </si>
+  <si>
+    <t>0.754+/-0.039</t>
+  </si>
+  <si>
+    <t>0.383+/-0.031</t>
+  </si>
+  <si>
+    <t>0.435</t>
+  </si>
+  <si>
+    <t>0.283+/-0.046</t>
+  </si>
+  <si>
+    <t>0.151+/-0.031</t>
+  </si>
+  <si>
+    <t>0.127</t>
+  </si>
+  <si>
+    <t>3.459+/-0.434</t>
+  </si>
+  <si>
+    <t>0.767+/-0.006</t>
+  </si>
+  <si>
+    <t>0.667+/-0.0</t>
   </si>
   <si>
     <t>0.684</t>
   </si>
   <si>
-    <t>0.843+/-0.036</t>
-  </si>
-  <si>
-    <t>0.4+/-0.073</t>
-  </si>
-  <si>
-    <t>0.463</t>
-  </si>
-  <si>
-    <t>0.299+/-0.03</t>
-  </si>
-  <si>
-    <t>0.143+/-0.028</t>
-  </si>
-  <si>
-    <t>0.164</t>
-  </si>
-  <si>
-    <t>0.057+/-0.007</t>
-  </si>
-  <si>
-    <t>0.748+/-0.006</t>
-  </si>
-  <si>
-    <t>0.675+/-0.0</t>
-  </si>
-  <si>
-    <t>0.664</t>
-  </si>
-  <si>
-    <t>0.817+/-0.047</t>
-  </si>
-  <si>
-    <t>0.399+/-0.055</t>
-  </si>
-  <si>
-    <t>0.388</t>
-  </si>
-  <si>
-    <t>0.237+/-0.027</t>
-  </si>
-  <si>
-    <t>0.111+/-0.025</t>
-  </si>
-  <si>
-    <t>0.157</t>
-  </si>
-  <si>
-    <t>0.068+/-0.006</t>
-  </si>
-  <si>
-    <t>0.707+/-0.001</t>
+    <t>0.839+/-0.033</t>
+  </si>
+  <si>
+    <t>0.395+/-0.055</t>
+  </si>
+  <si>
+    <t>0.464</t>
+  </si>
+  <si>
+    <t>0.303+/-0.031</t>
+  </si>
+  <si>
+    <t>0.147+/-0.025</t>
+  </si>
+  <si>
+    <t>0.155</t>
+  </si>
+  <si>
+    <t>0.057+/-0.005</t>
+  </si>
+  <si>
+    <t>0.749+/-0.006</t>
+  </si>
+  <si>
+    <t>0.668</t>
+  </si>
+  <si>
+    <t>0.816+/-0.025</t>
+  </si>
+  <si>
+    <t>0.414+/-0.059</t>
+  </si>
+  <si>
+    <t>0.409</t>
+  </si>
+  <si>
+    <t>0.238+/-0.024</t>
+  </si>
+  <si>
+    <t>0.117+/-0.021</t>
+  </si>
+  <si>
+    <t>0.173</t>
+  </si>
+  <si>
+    <t>0.068+/-0.003</t>
+  </si>
+  <si>
+    <t>0.706+/-0.001</t>
   </si>
   <si>
     <t>0.695+/-0.0</t>
   </si>
   <si>
-    <t>0.695</t>
-  </si>
-  <si>
-    <t>0.876+/-0.03</t>
-  </si>
-  <si>
-    <t>0.635+/-0.166</t>
-  </si>
-  <si>
-    <t>0.593</t>
+    <t>0.694</t>
+  </si>
+  <si>
+    <t>0.871+/-0.026</t>
+  </si>
+  <si>
+    <t>0.634+/-0.169</t>
+  </si>
+  <si>
+    <t>0.556</t>
   </si>
   <si>
     <t>0.056+/-0.004</t>
   </si>
   <si>
-    <t>0.031+/-0.008</t>
-  </si>
-  <si>
-    <t>0.028</t>
-  </si>
-  <si>
-    <t>23.089+/-2.965</t>
+    <t>0.031+/-0.007</t>
+  </si>
+  <si>
+    <t>0.026</t>
+  </si>
+  <si>
+    <t>14.814+/-1.425</t>
   </si>
 </sst>
 </file>
@@ -1383,22 +1371,22 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1415,19 +1403,19 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I3" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -1447,22 +1435,22 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1479,22 +1467,22 @@
         <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1511,19 +1499,19 @@
         <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
         <v>34</v>
@@ -1543,22 +1531,22 @@
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1572,25 +1560,25 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1604,25 +1592,25 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1639,22 +1627,22 @@
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1668,25 +1656,25 @@
         <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1736,31 +1724,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1768,31 +1756,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I3" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1800,31 +1788,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J4" t="s">
-        <v>160</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1835,28 +1823,28 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1867,28 +1855,28 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1899,28 +1887,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1931,28 +1919,28 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J8" t="s">
-        <v>163</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1963,28 +1951,28 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1995,28 +1983,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2027,28 +2015,28 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2098,31 +2086,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2130,31 +2118,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" t="s">
         <v>166</v>
       </c>
-      <c r="C3" t="s">
-        <v>169</v>
-      </c>
       <c r="D3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G3" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="H3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2162,31 +2150,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" t="s">
         <v>167</v>
       </c>
-      <c r="C4" t="s">
-        <v>170</v>
-      </c>
       <c r="D4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>215</v>
       </c>
       <c r="I4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2197,28 +2185,28 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2229,28 +2217,28 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2261,28 +2249,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2293,28 +2281,28 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2325,28 +2313,28 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2357,28 +2345,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2389,28 +2377,28 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="D11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E11" t="s">
-        <v>129</v>
+        <v>194</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -2460,31 +2448,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>243</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="J2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2492,31 +2480,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
         <v>243</v>
       </c>
-      <c r="C3" t="s">
-        <v>246</v>
-      </c>
       <c r="D3" t="s">
-        <v>255</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G3" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="H3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I3" t="s">
-        <v>301</v>
+        <v>186</v>
       </c>
       <c r="J3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2524,31 +2512,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" t="s">
         <v>244</v>
       </c>
-      <c r="C4" t="s">
-        <v>247</v>
-      </c>
       <c r="D4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G4" t="s">
-        <v>283</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="J4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2559,28 +2547,28 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D5" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E5" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G5" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="I5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J5" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2591,28 +2579,28 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D6" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F6" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G6" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I6" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="J6" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2623,28 +2611,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="J7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2655,28 +2643,28 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D8" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E8" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F8" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G8" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I8" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="J8" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2687,28 +2675,28 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D9" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E9" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F9" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G9" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H9" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="I9" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="J9" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2719,28 +2707,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E10" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F10" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G10" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="H10" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I10" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J10" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2754,25 +2742,25 @@
         <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E11" t="s">
-        <v>129</v>
+        <v>194</v>
       </c>
       <c r="F11" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G11" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H11" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I11" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="J11" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
